--- a/Test Data/Verify IS Calculation for PFI.xlsx
+++ b/Test Data/Verify IS Calculation for PFI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B421182-EDE5-40E6-8945-B5062D8FA494}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>Color Codes</t>
   </si>
@@ -103,12 +102,18 @@
   </si>
   <si>
     <t>NGC-1442</t>
+  </si>
+  <si>
+    <t>ISUnitsLoadingDetail</t>
+  </si>
+  <si>
+    <t>Intrinsically Safe Units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,11 +187,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,6 +632,9 @@
       <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -640,6 +662,9 @@
       <c r="H8" s="5">
         <v>40</v>
       </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
       <c r="K8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -667,6 +692,9 @@
       <c r="H9" s="5">
         <v>40</v>
       </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -693,6 +721,9 @@
       <c r="H10" s="5">
         <v>40</v>
       </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -719,6 +750,9 @@
       <c r="H11" s="5">
         <v>40</v>
       </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -745,6 +779,9 @@
       <c r="H12" s="5">
         <v>40</v>
       </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -771,6 +808,9 @@
       <c r="H13" s="5">
         <v>40</v>
       </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -797,6 +837,9 @@
       <c r="H14" s="5">
         <v>40</v>
       </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -822,6 +865,9 @@
       </c>
       <c r="H15" s="5">
         <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
